--- a/data 5.xlsx
+++ b/data 5.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="380" yWindow="100" windowWidth="15640" windowHeight="9880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +75,60 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Varying Threads with Machine Instruction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.201129273397787"/>
+          <c:y val="0.0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.137926243396791"/>
+          <c:y val="0.224761904761905"/>
+          <c:w val="0.817390212299412"/>
+          <c:h val="0.545016122984627"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -86,28 +139,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -119,42 +172,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91884160"/>
-        <c:axId val="91882624"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2116720648"/>
+        <c:axId val="2116779992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91884160"/>
+        <c:axId val="2116720648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -173,18 +235,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91882624"/>
+        <c:crossAx val="2116779992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91882624"/>
+        <c:axId val="2116779992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -209,15 +275,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91884160"/>
+        <c:crossAx val="2116720648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -546,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -630,29 +701,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>